--- a/redis/redis面试.xlsx
+++ b/redis/redis面试.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\redis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9511E3-49FA-4385-8118-D24AE0C6C3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24570" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,18 +22,22 @@
   </si>
   <si>
     <t>https://github.com/Snailclimb/JavaGuide/blob/master/%E6%95%B0%E6%8D%AE%E5%AD%98%E5%82%A8/Redis/Redis.md</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GIT对redis的几个问题的概述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,9 +54,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -66,20 +65,341 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -87,81 +407,360 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>113113</xdr:colOff>
+      <xdr:colOff>132163</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>94624</xdr:rowOff>
+      <xdr:rowOff>27949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A9B8E8-1340-496A-AC79-0E649475A035}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="1600200"/>
-          <a:ext cx="9495238" cy="5009524"/>
+          <a:off x="57150" y="1533525"/>
+          <a:ext cx="9495155" cy="5009515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -454,74 +1053,80 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="BE15" sqref="BE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="wechat_redirect" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{BA0114DC-B4AD-4D13-8901-18BEF02FEE22}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://mp.weixin.qq.com/s?__biz=MzU4NDQ4MzU5OA==&amp;mid=2247483867&amp;idx=1&amp;sn=39a06fa3d6d8f09eefaaf3d2b15b40e4&amp;chksm=fd9857bacaefdeaccd7cacf9dba5b702bf6f639377ded5a29fc1e56ae4f1d0a121ad0829c9dc&amp;scene=21#wechat_redirect"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://github.com/Snailclimb/JavaGuide/blob/master/%E6%95%B0%E6%8D%AE%E5%AD%98%E5%82%A8/Redis/Redis.md" tooltip="https://github.com/Snailclimb/JavaGuide/blob/master/%E6%95%B0%E6%8D%AE%E5%AD%98%E5%82%A8/Redis/Redis.md"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>